--- a/tabel.xlsx
+++ b/tabel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="156">
   <si>
     <t>Deskripsi</t>
   </si>
@@ -233,9 +233,6 @@
     <t>satuan</t>
   </si>
   <si>
-    <t>id_paren</t>
-  </si>
-  <si>
     <t>id_parent</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
   </si>
   <si>
     <t>id_wilayah</t>
-  </si>
-  <si>
-    <t>id_variabel</t>
   </si>
   <si>
     <t>id_item_kategori</t>
@@ -448,12 +442,96 @@
   <si>
     <t>FK</t>
   </si>
+  <si>
+    <t xml:space="preserve">  PK  id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_bulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tahun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_wilayah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_variabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_kategori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_sumber_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_item_kategori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_tipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FK  id_topik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         nama_cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tanggal_cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         institusi_cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         deskripsi_cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         nama_buku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         tanggal_buku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         penerbit_buku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         nama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         keterangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         satuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         id_parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         center_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         center_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         id_kategori</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +573,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Sitka Display"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -510,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -649,11 +732,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,53 +1088,111 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,6 +1209,3857 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345282</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>821872</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="155" idx="6"/>
+          <a:endCxn id="221" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5036345" y="2869149"/>
+          <a:ext cx="476590" cy="987064"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>264038</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>373856</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Right Bracket 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7318491" y="725230"/>
+          <a:ext cx="109818" cy="2073929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="id-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>988705</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115055</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="3405188"/>
+          <a:ext cx="822018" cy="424617"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62312"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130969</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812515</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Elbow Connector 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="226" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305404" y="705833"/>
+          <a:ext cx="681546" cy="213863"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59865"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196453</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464344</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>113618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4351734" y="3000375"/>
+          <a:ext cx="267891" cy="509"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>450326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>48843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Connector 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4614112" y="663886"/>
+          <a:ext cx="12317" cy="2351457"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>446171</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>880241</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60158</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Connector 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4617464" y="663466"/>
+          <a:ext cx="434070" cy="1037"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>708421</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="Left Bracket 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2734235" y="2599765"/>
+          <a:ext cx="148127" cy="2919832"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="id-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286002</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Right Bracket 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4977065" y="4379727"/>
+          <a:ext cx="225966" cy="1045951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="id-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139210</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Right Bracket 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1124840" y="1706217"/>
+          <a:ext cx="76138" cy="1681689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="id-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>370974</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>772691</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Connector 102"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2548117" y="2798314"/>
+          <a:ext cx="401717" cy="870"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>386013</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>135355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Connector 104"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2561724" y="1764633"/>
+          <a:ext cx="5013" cy="1057775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144517</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>396041</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>125329</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Connector 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2331983" y="1740776"/>
+          <a:ext cx="251524" cy="519"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171864</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Right Bracket 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543589" y="708992"/>
+          <a:ext cx="97078" cy="1689843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="id-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>911</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228284</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>201305</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="134" name="Group 133"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="4699198" y="3522925"/>
+          <a:ext cx="227373" cy="167313"/>
+          <a:chOff x="7020298" y="4662237"/>
+          <a:chExt cx="329304" cy="185487"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="121" name="Group 120"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7020298" y="4679389"/>
+            <a:ext cx="329304" cy="132622"/>
+            <a:chOff x="6633229" y="4582041"/>
+            <a:chExt cx="334320" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="116" name="Straight Connector 115"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6633229" y="4654121"/>
+              <a:ext cx="333442" cy="387"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="118" name="Straight Connector 117"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="120" name="Straight Connector 119"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="132" name="Straight Connector 131"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7087250" y="4662237"/>
+            <a:ext cx="1356" cy="185487"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1450683</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184546</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="144" name="Group 143"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4693464" y="4312397"/>
+          <a:ext cx="338197" cy="120941"/>
+          <a:chOff x="7188863" y="4769626"/>
+          <a:chExt cx="501109" cy="138256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="137" name="Group 136"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="7188863" y="4769626"/>
+            <a:ext cx="307326" cy="132622"/>
+            <a:chOff x="6740769" y="4582041"/>
+            <a:chExt cx="226780" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="139" name="Straight Connector 138"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6749291" y="4653692"/>
+              <a:ext cx="217379" cy="430"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="140" name="Straight Connector 139"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="141" name="Straight Connector 140"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="Flowchart: Connector 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489659" y="4772527"/>
+            <a:ext cx="200313" cy="135355"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149644</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>203786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>704413</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="146" name="Group 145"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7673324" y="3949573"/>
+          <a:ext cx="554769" cy="136411"/>
+          <a:chOff x="7188863" y="4769626"/>
+          <a:chExt cx="501109" cy="138256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="147" name="Group 146"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="7188863" y="4769626"/>
+            <a:ext cx="307326" cy="132622"/>
+            <a:chOff x="6740769" y="4582041"/>
+            <a:chExt cx="226780" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="149" name="Straight Connector 148"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6749291" y="4653692"/>
+              <a:ext cx="217379" cy="430"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="150" name="Straight Connector 149"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="151" name="Straight Connector 150"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="Flowchart: Connector 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489659" y="4772527"/>
+            <a:ext cx="200313" cy="135355"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1452954</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345282</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148827</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="153" name="Group 152"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4695735" y="3782279"/>
+          <a:ext cx="347834" cy="112335"/>
+          <a:chOff x="7188863" y="4769626"/>
+          <a:chExt cx="501109" cy="138256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="154" name="Group 153"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="7188863" y="4769626"/>
+            <a:ext cx="307326" cy="132622"/>
+            <a:chOff x="6740769" y="4582041"/>
+            <a:chExt cx="226780" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="156" name="Straight Connector 155"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6749291" y="4653692"/>
+              <a:ext cx="217379" cy="430"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="157" name="Straight Connector 156"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="158" name="Straight Connector 157"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="Flowchart: Connector 154"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489659" y="4772527"/>
+            <a:ext cx="200313" cy="135355"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1411295</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>45051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500914</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168862</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="193" name="Group 192"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4654076" y="751399"/>
+          <a:ext cx="545125" cy="123811"/>
+          <a:chOff x="8057015" y="3769572"/>
+          <a:chExt cx="155022" cy="104952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="178" name="Straight Connector 177"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8057015" y="3818510"/>
+            <a:ext cx="155022" cy="385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="182" name="Straight Connector 181"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8114686" y="3769572"/>
+            <a:ext cx="161" cy="98807"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="187" name="Straight Connector 186"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8154629" y="3770056"/>
+            <a:ext cx="0" cy="104468"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>814387</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7591</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123811</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="195" name="Group 194"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5512674" y="706348"/>
+          <a:ext cx="199215" cy="123811"/>
+          <a:chOff x="8057015" y="3769572"/>
+          <a:chExt cx="155022" cy="104952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="196" name="Straight Connector 195"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8057015" y="3818510"/>
+            <a:ext cx="155022" cy="385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="197" name="Straight Connector 196"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8114686" y="3769572"/>
+            <a:ext cx="161" cy="98807"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="198" name="Straight Connector 197"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8154629" y="3770056"/>
+            <a:ext cx="0" cy="104468"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1416845</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297657</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>196452</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="205" name="Group 204"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4659626" y="5336951"/>
+          <a:ext cx="336318" cy="125007"/>
+          <a:chOff x="7262846" y="3506399"/>
+          <a:chExt cx="220232" cy="116562"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="199" name="Group 198"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7262846" y="3506399"/>
+            <a:ext cx="125002" cy="116562"/>
+            <a:chOff x="8057015" y="3769572"/>
+            <a:chExt cx="96091" cy="98807"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="200" name="Straight Connector 199"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="204" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8057015" y="3818510"/>
+              <a:ext cx="96091" cy="1519"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="201" name="Straight Connector 200"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="8114686" y="3769572"/>
+              <a:ext cx="161" cy="98807"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="204" name="Flowchart: Connector 203"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7387828" y="3512343"/>
+            <a:ext cx="95250" cy="107157"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695664</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13436</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136411</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="207" name="Group 206"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="3071563" y="3030836"/>
+          <a:ext cx="184654" cy="102204"/>
+          <a:chOff x="7188863" y="4769626"/>
+          <a:chExt cx="501109" cy="138256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="208" name="Group 207"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="7188863" y="4769626"/>
+            <a:ext cx="307326" cy="132622"/>
+            <a:chOff x="6740769" y="4582041"/>
+            <a:chExt cx="226780" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="210" name="Straight Connector 209"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6749291" y="4653692"/>
+              <a:ext cx="217379" cy="430"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="211" name="Straight Connector 210"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="212" name="Straight Connector 211"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="Flowchart: Connector 208"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489659" y="4772527"/>
+            <a:ext cx="200313" cy="135355"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>706040</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17859</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="213" name="Group 212"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="3081939" y="6568875"/>
+          <a:ext cx="178701" cy="115481"/>
+          <a:chOff x="7262846" y="3506399"/>
+          <a:chExt cx="220232" cy="116562"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="214" name="Group 213"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7262846" y="3506399"/>
+            <a:ext cx="125002" cy="116562"/>
+            <a:chOff x="8057015" y="3769572"/>
+            <a:chExt cx="96091" cy="98807"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="216" name="Straight Connector 215"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="215" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8057015" y="3818510"/>
+              <a:ext cx="96091" cy="1519"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="217" name="Straight Connector 216"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="8114686" y="3769572"/>
+              <a:ext cx="161" cy="98807"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="215" name="Flowchart: Connector 214"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7387828" y="3512343"/>
+            <a:ext cx="95250" cy="107157"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>821872</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13268</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180303</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="219" name="Group 218"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5520159" y="2799647"/>
+          <a:ext cx="197407" cy="120431"/>
+          <a:chOff x="7262846" y="3506399"/>
+          <a:chExt cx="220232" cy="116562"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="220" name="Group 219"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7262846" y="3506399"/>
+            <a:ext cx="125002" cy="116562"/>
+            <a:chOff x="8057015" y="3769572"/>
+            <a:chExt cx="96091" cy="98807"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="222" name="Straight Connector 221"/>
+            <xdr:cNvCxnSpPr>
+              <a:endCxn id="221" idx="2"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8057015" y="3818510"/>
+              <a:ext cx="96091" cy="1519"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="223" name="Straight Connector 222"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="8114686" y="3769572"/>
+              <a:ext cx="161" cy="98807"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="221" name="Flowchart: Connector 220"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7387828" y="3512343"/>
+            <a:ext cx="95250" cy="107157"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812515</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="224" name="Group 223"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="5510802" y="1019716"/>
+          <a:ext cx="226626" cy="100855"/>
+          <a:chOff x="7188863" y="4769626"/>
+          <a:chExt cx="501109" cy="138256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="225" name="Group 224"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="7188863" y="4769626"/>
+            <a:ext cx="307326" cy="132622"/>
+            <a:chOff x="6740769" y="4582041"/>
+            <a:chExt cx="226780" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="227" name="Straight Connector 226"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6749291" y="4653692"/>
+              <a:ext cx="217379" cy="430"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="228" name="Straight Connector 227"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="229" name="Straight Connector 228"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="226" name="Flowchart: Connector 225"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489659" y="4772527"/>
+            <a:ext cx="200313" cy="135355"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1315641</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336946</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="230" name="Group 229"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7019939" y="3288670"/>
+          <a:ext cx="369788" cy="114845"/>
+          <a:chOff x="7188863" y="4769626"/>
+          <a:chExt cx="501109" cy="138256"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="231" name="Group 230"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm flipH="1">
+            <a:off x="7188863" y="4769626"/>
+            <a:ext cx="307326" cy="132622"/>
+            <a:chOff x="6740769" y="4582041"/>
+            <a:chExt cx="226780" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="233" name="Straight Connector 232"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6749291" y="4653692"/>
+              <a:ext cx="217379" cy="430"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="234" name="Straight Connector 233"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="235" name="Straight Connector 234"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="232" name="Flowchart: Connector 231"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7489659" y="4772527"/>
+            <a:ext cx="200313" cy="135355"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartConnector">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="id-ID" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1268016</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301643</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="236" name="Group 235"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6972314" y="748520"/>
+          <a:ext cx="382110" cy="148328"/>
+          <a:chOff x="8057015" y="3769572"/>
+          <a:chExt cx="155022" cy="104952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="237" name="Straight Connector 236"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8057015" y="3818510"/>
+            <a:ext cx="155022" cy="385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="238" name="Straight Connector 237"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8114686" y="3769572"/>
+            <a:ext cx="161" cy="98807"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="239" name="Straight Connector 238"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8154629" y="3770056"/>
+            <a:ext cx="0" cy="104468"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1027697</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197421</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175461</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="243" name="Group 242"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2365478" y="739806"/>
+          <a:ext cx="207842" cy="142003"/>
+          <a:chOff x="8057015" y="3769572"/>
+          <a:chExt cx="155022" cy="104952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="244" name="Straight Connector 243"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8057015" y="3818510"/>
+            <a:ext cx="155022" cy="385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="245" name="Straight Connector 244"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8114686" y="3769572"/>
+            <a:ext cx="161" cy="98807"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="246" name="Straight Connector 245"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8154629" y="3770056"/>
+            <a:ext cx="0" cy="104468"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5518</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>232891</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>241624</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="247" name="Group 246"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="2381417" y="2765337"/>
+          <a:ext cx="227373" cy="216062"/>
+          <a:chOff x="7020298" y="4662237"/>
+          <a:chExt cx="329304" cy="185487"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="248" name="Group 247"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7020298" y="4679389"/>
+            <a:ext cx="329304" cy="132622"/>
+            <a:chOff x="6633229" y="4582041"/>
+            <a:chExt cx="334320" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="250" name="Straight Connector 249"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6633229" y="4654121"/>
+              <a:ext cx="333442" cy="387"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="251" name="Straight Connector 250"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="252" name="Straight Connector 251"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="249" name="Straight Connector 248"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7087250" y="4662237"/>
+            <a:ext cx="1356" cy="185487"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>186816</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38434</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>159404</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="253" name="Group 252"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1171423" y="1994104"/>
+          <a:ext cx="204792" cy="123811"/>
+          <a:chOff x="8057015" y="3769572"/>
+          <a:chExt cx="155022" cy="104952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="254" name="Straight Connector 253"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8057015" y="3818510"/>
+            <a:ext cx="155022" cy="385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="255" name="Straight Connector 254"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8114686" y="3769572"/>
+            <a:ext cx="161" cy="98807"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="256" name="Straight Connector 255"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8154629" y="3770056"/>
+            <a:ext cx="0" cy="104468"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172311</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52064</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>236883</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="257" name="Group 256"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1156918" y="4020394"/>
+          <a:ext cx="232927" cy="219129"/>
+          <a:chOff x="7020298" y="4662237"/>
+          <a:chExt cx="329304" cy="185487"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="258" name="Group 257"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7020298" y="4679389"/>
+            <a:ext cx="329304" cy="132622"/>
+            <a:chOff x="6633229" y="4582041"/>
+            <a:chExt cx="334320" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="260" name="Straight Connector 259"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6633229" y="4654121"/>
+              <a:ext cx="333442" cy="387"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="261" name="Straight Connector 260"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="262" name="Straight Connector 261"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="259" name="Straight Connector 258"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7087250" y="4662237"/>
+            <a:ext cx="1356" cy="185487"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673604</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>857563</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>243485</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="Group 109"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3049503" y="3270798"/>
+          <a:ext cx="183959" cy="215468"/>
+          <a:chOff x="7020298" y="4662237"/>
+          <a:chExt cx="329304" cy="185487"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="111" name="Group 110"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7020298" y="4679389"/>
+            <a:ext cx="329304" cy="132622"/>
+            <a:chOff x="6633229" y="4582041"/>
+            <a:chExt cx="334320" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="113" name="Straight Connector 112"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6633229" y="4654121"/>
+              <a:ext cx="333442" cy="387"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="115" name="Straight Connector 114"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="117" name="Straight Connector 116"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent2"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent2"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent2"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="112" name="Straight Connector 111"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7087250" y="4662237"/>
+            <a:ext cx="1356" cy="185487"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161004</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>239995</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="Group 118"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2337906" y="1983782"/>
+          <a:ext cx="198997" cy="214724"/>
+          <a:chOff x="8057015" y="3769572"/>
+          <a:chExt cx="155022" cy="104952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="122" name="Straight Connector 121"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8057015" y="3818510"/>
+            <a:ext cx="155022" cy="385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="123" name="Straight Connector 122"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8114686" y="3769572"/>
+            <a:ext cx="161" cy="98807"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="124" name="Straight Connector 123"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8154629" y="3770056"/>
+            <a:ext cx="0" cy="104468"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1457046</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225903</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>187019</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="127" name="Group 126"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm flipH="1">
+          <a:off x="4699827" y="4022346"/>
+          <a:ext cx="224363" cy="167313"/>
+          <a:chOff x="7020298" y="4662237"/>
+          <a:chExt cx="329304" cy="185487"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="128" name="Group 127"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7020298" y="4679389"/>
+            <a:ext cx="329304" cy="132622"/>
+            <a:chOff x="6633229" y="4582041"/>
+            <a:chExt cx="334320" cy="130019"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="130" name="Straight Connector 129"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6633229" y="4654121"/>
+              <a:ext cx="333442" cy="387"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="131" name="Straight Connector 130"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="6744215" y="4582041"/>
+              <a:ext cx="219808" cy="73269"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="133" name="Straight Connector 132"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740769" y="4652596"/>
+              <a:ext cx="226780" cy="59464"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="129" name="Straight Connector 128"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7087250" y="4662237"/>
+            <a:ext cx="1356" cy="185487"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>871538</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64742</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180961</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="135" name="Group 134"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5569825" y="4562796"/>
+          <a:ext cx="199215" cy="123811"/>
+          <a:chOff x="8057015" y="3769572"/>
+          <a:chExt cx="155022" cy="104952"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="136" name="Straight Connector 135"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8057015" y="3818510"/>
+            <a:ext cx="155022" cy="385"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="138" name="Straight Connector 137"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="8114686" y="3769572"/>
+            <a:ext cx="161" cy="98807"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="142" name="Straight Connector 141"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8154629" y="3770056"/>
+            <a:ext cx="0" cy="104468"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,8 +5327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G30"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O14" sqref="K4:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1052,7 +5351,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>0</v>
@@ -1200,7 +5499,7 @@
       <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -1226,7 +5525,7 @@
       <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="18"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="8" t="s">
         <v>61</v>
       </c>
@@ -1242,7 +5541,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>0</v>
@@ -1263,7 +5562,7 @@
         <v>29</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>62</v>
@@ -1294,7 +5593,7 @@
       <c r="H11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="21" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -1329,7 +5628,7 @@
       <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="8" t="s">
         <v>61</v>
       </c>
@@ -1366,7 +5665,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>62</v>
@@ -1435,7 +5734,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>0</v>
@@ -1510,7 +5809,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1601,7 +5900,7 @@
         <v>36</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1628,7 +5927,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>0</v>
@@ -1760,273 +6059,438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J20"/>
+  <dimension ref="C2:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="5.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="32"/>
+      <c r="L3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="29"/>
+      <c r="D4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="F4" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="L4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C5" s="36"/>
+      <c r="D5" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="L5" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C7" s="39"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="46"/>
+      <c r="D8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="29"/>
+      <c r="D9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="29"/>
+      <c r="D10" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="49"/>
+      <c r="L10" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="29"/>
+      <c r="D11" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="L11" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="29"/>
+      <c r="D12" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C14" s="39"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="29"/>
+      <c r="D16" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C17" s="29"/>
+      <c r="D17" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="47"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" spans="3:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="29"/>
+      <c r="D18" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="3:9" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="29"/>
+      <c r="D19" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C20" s="29"/>
+      <c r="D20" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="3:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="29"/>
+      <c r="D21" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="3:9" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="29"/>
+      <c r="D22" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C24" s="39"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C25" s="39"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="3:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="39"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H20" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="3:9" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="39"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="34"/>
+      <c r="H27" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C28" s="53"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="34"/>
+      <c r="H28" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2034,8 +6498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,261 +6510,261 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="63" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="24" t="s">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="26" t="s">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="26" t="s">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="26" t="s">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="59" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="26" t="s">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="24" t="s">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="26" t="s">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="26" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>104</v>
+      <c r="B33" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2312,8 +6776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E51" sqref="B3:E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B3:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +6796,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -2353,389 +6817,389 @@
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>114</v>
+      <c r="D5" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+      <c r="C8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="E10" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+      <c r="C11" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+      <c r="C12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+      <c r="C13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+      <c r="C14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="D15" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="32" t="s">
+      <c r="E15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="32" t="s">
+      <c r="D21" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+      <c r="C23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+      <c r="C25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+      <c r="C26" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+      <c r="C27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+      <c r="C28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+      <c r="C29" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+      <c r="C30" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+      <c r="C32" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="D32" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+      <c r="C33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="32" t="s">
+      <c r="D35" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+      <c r="C36" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+      <c r="C37" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="32" t="s">
+      <c r="D37" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+      <c r="C38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+      <c r="C39" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>122</v>
+      <c r="D39" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="E39" s="1"/>
     </row>
@@ -2746,126 +7210,126 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>117</v>
+      <c r="D41" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="C42" s="32" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="C43" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="32" t="s">
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="C46" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="C47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="C49" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="24"/>
+      <c r="C50" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="24"/>
+      <c r="C51" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
-      <c r="C46" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
-      <c r="C47" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
-      <c r="C48" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
-      <c r="C50" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
-      <c r="C51" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>116</v>
+      <c r="D51" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="E51" s="1"/>
     </row>

--- a/tabel.xlsx
+++ b/tabel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1098,19 +1098,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1194,6 +1181,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1922,7 +1922,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4699198" y="3522925"/>
+          <a:off x="4695375" y="3531028"/>
           <a:ext cx="227373" cy="167313"/>
           <a:chOff x="7020298" y="4662237"/>
           <a:chExt cx="329304" cy="185487"/>
@@ -2081,8 +2081,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4693464" y="4312397"/>
-          <a:ext cx="338197" cy="120941"/>
+          <a:off x="4689183" y="4322641"/>
+          <a:ext cx="338655" cy="120941"/>
           <a:chOff x="7188863" y="4769626"/>
           <a:chExt cx="501109" cy="138256"/>
         </a:xfrm>
@@ -2249,8 +2249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7673324" y="3949573"/>
-          <a:ext cx="554769" cy="136411"/>
+          <a:off x="7660787" y="3959357"/>
+          <a:ext cx="554769" cy="138094"/>
           <a:chOff x="7188863" y="4769626"/>
           <a:chExt cx="501109" cy="138256"/>
         </a:xfrm>
@@ -2420,8 +2420,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4695735" y="3782279"/>
-          <a:ext cx="347834" cy="112335"/>
+          <a:off x="4691454" y="3792063"/>
+          <a:ext cx="348292" cy="112335"/>
           <a:chOff x="7188863" y="4769626"/>
           <a:chExt cx="501109" cy="138256"/>
         </a:xfrm>
@@ -2588,8 +2588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4654076" y="751399"/>
-          <a:ext cx="545125" cy="123811"/>
+          <a:off x="4649795" y="752622"/>
+          <a:ext cx="545583" cy="123811"/>
           <a:chOff x="8057015" y="3769572"/>
           <a:chExt cx="155022" cy="104952"/>
         </a:xfrm>
@@ -2704,8 +2704,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5512674" y="706348"/>
-          <a:ext cx="199215" cy="123811"/>
+          <a:off x="5508851" y="707571"/>
+          <a:ext cx="200133" cy="123811"/>
           <a:chOff x="8057015" y="3769572"/>
           <a:chExt cx="155022" cy="104952"/>
         </a:xfrm>
@@ -2820,8 +2820,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4659626" y="5336951"/>
-          <a:ext cx="336318" cy="125007"/>
+          <a:off x="4655345" y="5351016"/>
+          <a:ext cx="336776" cy="125007"/>
           <a:chOff x="7262846" y="3506399"/>
           <a:chExt cx="220232" cy="116562"/>
         </a:xfrm>
@@ -2960,8 +2960,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="3071563" y="3030836"/>
-          <a:ext cx="184654" cy="102204"/>
+          <a:off x="3063307" y="3041386"/>
+          <a:ext cx="188629" cy="102204"/>
           <a:chOff x="7188863" y="4769626"/>
           <a:chExt cx="501109" cy="138256"/>
         </a:xfrm>
@@ -3131,8 +3131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="3081939" y="6568875"/>
-          <a:ext cx="178701" cy="115481"/>
+          <a:off x="3073683" y="6582635"/>
+          <a:ext cx="182676" cy="115481"/>
           <a:chOff x="7262846" y="3506399"/>
           <a:chExt cx="220232" cy="116562"/>
         </a:xfrm>
@@ -3271,8 +3271,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5520159" y="2799647"/>
-          <a:ext cx="197407" cy="120431"/>
+          <a:off x="5516336" y="2808515"/>
+          <a:ext cx="198325" cy="120431"/>
           <a:chOff x="7262846" y="3506399"/>
           <a:chExt cx="220232" cy="116562"/>
         </a:xfrm>
@@ -3411,8 +3411,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="5510802" y="1019716"/>
-          <a:ext cx="226626" cy="100855"/>
+          <a:off x="5506979" y="1022621"/>
+          <a:ext cx="227544" cy="100855"/>
           <a:chOff x="7188863" y="4769626"/>
           <a:chExt cx="501109" cy="138256"/>
         </a:xfrm>
@@ -3579,8 +3579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7019939" y="3288670"/>
-          <a:ext cx="369788" cy="114845"/>
+          <a:off x="7017034" y="3297996"/>
+          <a:ext cx="368412" cy="114845"/>
           <a:chOff x="7188863" y="4769626"/>
           <a:chExt cx="501109" cy="138256"/>
         </a:xfrm>
@@ -3751,8 +3751,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6972314" y="748520"/>
-          <a:ext cx="382110" cy="148328"/>
+          <a:off x="6969409" y="749743"/>
+          <a:ext cx="380734" cy="148328"/>
           <a:chOff x="8057015" y="3769572"/>
           <a:chExt cx="155022" cy="104952"/>
         </a:xfrm>
@@ -3867,8 +3867,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2365478" y="739806"/>
-          <a:ext cx="207842" cy="142003"/>
+          <a:off x="2361197" y="741029"/>
+          <a:ext cx="203867" cy="142003"/>
           <a:chOff x="8057015" y="3769572"/>
           <a:chExt cx="155022" cy="104952"/>
         </a:xfrm>
@@ -3998,7 +3998,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="2381417" y="2765337"/>
+          <a:off x="2373161" y="2774205"/>
           <a:ext cx="227373" cy="216062"/>
           <a:chOff x="7020298" y="4662237"/>
           <a:chExt cx="329304" cy="185487"/>
@@ -4177,8 +4177,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1171423" y="1994104"/>
-          <a:ext cx="204792" cy="123811"/>
+          <a:off x="1166530" y="1995022"/>
+          <a:ext cx="205404" cy="123811"/>
           <a:chOff x="8057015" y="3769572"/>
           <a:chExt cx="155022" cy="104952"/>
         </a:xfrm>
@@ -4296,8 +4296,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1156918" y="4020394"/>
-          <a:ext cx="232927" cy="219129"/>
+          <a:off x="1152025" y="4031861"/>
+          <a:ext cx="233539" cy="219129"/>
           <a:chOff x="7020298" y="4662237"/>
           <a:chExt cx="329304" cy="185487"/>
         </a:xfrm>
@@ -4459,7 +4459,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3049503" y="3270798"/>
+          <a:off x="3041247" y="3280124"/>
           <a:ext cx="183959" cy="215468"/>
           <a:chOff x="7020298" y="4662237"/>
           <a:chExt cx="329304" cy="185487"/>
@@ -4638,8 +4638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2337906" y="1983782"/>
-          <a:ext cx="198997" cy="214724"/>
+          <a:off x="2333625" y="1984700"/>
+          <a:ext cx="195022" cy="214724"/>
           <a:chOff x="8057015" y="3769572"/>
           <a:chExt cx="155022" cy="104952"/>
         </a:xfrm>
@@ -4769,8 +4769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="4699827" y="4022346"/>
-          <a:ext cx="224363" cy="167313"/>
+          <a:off x="4695546" y="4033813"/>
+          <a:ext cx="224821" cy="167313"/>
           <a:chOff x="7020298" y="4662237"/>
           <a:chExt cx="329304" cy="185487"/>
         </a:xfrm>
@@ -4948,8 +4948,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5569825" y="4562796"/>
-          <a:ext cx="199215" cy="123811"/>
+          <a:off x="5566002" y="4574721"/>
+          <a:ext cx="200133" cy="123811"/>
           <a:chOff x="8057015" y="3769572"/>
           <a:chExt cx="155022" cy="104952"/>
         </a:xfrm>
@@ -5499,7 +5499,7 @@
       <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="63" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -5525,7 +5525,7 @@
       <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="8" t="s">
         <v>61</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="H11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="63" t="s">
         <v>37</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -5628,7 +5628,7 @@
       <c r="H12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="8" t="s">
         <v>61</v>
       </c>
@@ -6061,8 +6061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6078,414 +6078,414 @@
     <col min="9" max="9" width="7" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="32"/>
+      <c r="I3" s="27"/>
       <c r="L3" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="29"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="I4" s="27"/>
       <c r="L4" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C5" s="36"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="38" t="s">
+      <c r="G5" s="29"/>
+      <c r="H5" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="27"/>
       <c r="L5" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="9"/>
       <c r="L6" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C7" s="39"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="42" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="9"/>
       <c r="L7" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="46"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="43" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="9"/>
       <c r="L8" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="29"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="9"/>
       <c r="L9" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="29"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="49"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="44"/>
       <c r="L10" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C11" s="29"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="29"/>
+      <c r="H11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="32"/>
+      <c r="I11" s="27"/>
       <c r="L11" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="29"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="K12" s="20"/>
+      <c r="I12" s="27"/>
+      <c r="K12" s="67"/>
       <c r="L12" s="11" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="43" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="38" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="3:12" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C14" s="39"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="43" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="43" t="s">
+      <c r="G14" s="29"/>
+      <c r="H14" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="3:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="50" t="s">
+      <c r="G15" s="29"/>
+      <c r="H15" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="32"/>
+      <c r="I15" s="27"/>
     </row>
     <row r="16" spans="3:12" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="29"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="43" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="49"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C17" s="29"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="49"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" spans="3:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="29"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="51" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="32"/>
+      <c r="I18" s="27"/>
     </row>
     <row r="19" spans="3:9" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="29"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="35" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="32"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="20" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C20" s="29"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="38" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="32"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="3:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="29"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="29"/>
+      <c r="F21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="43" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="32"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="3:9" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="29"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35" t="s">
+      <c r="E22" s="29"/>
+      <c r="F22" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="43" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="I22" s="32"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="38" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="43" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="32"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C24" s="39"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="50" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="43" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="I24" s="32"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C25" s="39"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="43" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="3:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="39"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="30" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="43" t="s">
+      <c r="G26" s="29"/>
+      <c r="H26" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="3:9" ht="20.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="39"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="35" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="43" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="32"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C28" s="53"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="38" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="43" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="I28" s="32"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="3:9" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6521,249 +6521,249 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="54" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="58" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="58" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="63" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="58" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="58" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="56" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="54" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="58" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="54" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="54" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="54" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="56" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="54" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="56" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="54" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="56" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B3:E51"/>
     </sheetView>
   </sheetViews>
@@ -6838,7 +6838,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="65" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -6852,7 +6852,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="18" t="s">
         <v>70</v>
       </c>
@@ -6862,7 +6862,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="18" t="s">
         <v>71</v>
       </c>
@@ -6874,7 +6874,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="18" t="s">
         <v>72</v>
       </c>
@@ -6886,7 +6886,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="18" t="s">
         <v>116</v>
       </c>
@@ -6898,7 +6898,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="18" t="s">
         <v>73</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="18" t="s">
         <v>74</v>
       </c>
@@ -6922,7 +6922,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="18" t="s">
         <v>117</v>
       </c>
@@ -6932,7 +6932,7 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="65" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -6946,7 +6946,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="18" t="s">
         <v>95</v>
       </c>
@@ -6958,7 +6958,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="18" t="s">
         <v>64</v>
       </c>
@@ -6968,7 +6968,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="65" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="18" t="s">
@@ -6980,7 +6980,7 @@
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="18" t="s">
         <v>64</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="18" t="s">
         <v>66</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="65" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -7014,7 +7014,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="18" t="s">
         <v>69</v>
       </c>
@@ -7024,7 +7024,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="23"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="18" t="s">
         <v>84</v>
       </c>
@@ -7034,7 +7034,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="23"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="18" t="s">
         <v>85</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="18" t="s">
         <v>86</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="18" t="s">
         <v>87</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="18" t="s">
         <v>88</v>
       </c>
@@ -7074,7 +7074,7 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="18" t="s">
         <v>89</v>
       </c>
@@ -7084,7 +7084,7 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="18" t="s">
         <v>90</v>
       </c>
@@ -7094,7 +7094,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="18" t="s">
         <v>81</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="65" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -7118,7 +7118,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="18" t="s">
         <v>64</v>
       </c>
@@ -7128,7 +7128,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="18" t="s">
         <v>66</v>
       </c>
@@ -7138,7 +7138,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="18" t="s">
         <v>68</v>
       </c>
@@ -7148,7 +7148,7 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="65" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -7162,7 +7162,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="18" t="s">
         <v>65</v>
       </c>
@@ -7174,7 +7174,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="23"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="18" t="s">
         <v>64</v>
       </c>
@@ -7184,7 +7184,7 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="18" t="s">
         <v>67</v>
       </c>
@@ -7194,7 +7194,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="18" t="s">
         <v>66</v>
       </c>
@@ -7214,7 +7214,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="66" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -7228,7 +7228,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="18" t="s">
         <v>64</v>
       </c>
@@ -7238,7 +7238,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="18" t="s">
         <v>68</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="18" t="s">
         <v>69</v>
       </c>
@@ -7258,7 +7258,7 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="18" t="s">
@@ -7272,7 +7272,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="18" t="s">
         <v>72</v>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="18" t="s">
         <v>94</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="18" t="s">
         <v>92</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="18" t="s">
         <v>93</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="18" t="s">
         <v>91</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="24"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="18" t="s">
         <v>69</v>
       </c>
